--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>CDS CareTeam Profile</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T10:26:21+00:00</t>
+    <t>2024-05-28T07:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil héritant du profil défini dans DCTM et défini pour le volet Gestion du Cercle de Soins</t>
+    <t>Profil héritant du profil défini dans DCTM et défini pour le volet Gestion du Cercle de Soins. Le concept métier « cercle de soins » correspond à la ressource FHIR « CareTeam ».</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -263,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -310,24 +313,194 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>CareTeam.implicitRules</t>
+    <t>CareTeam.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CareTeam.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CareTeam.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>CareTeam.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>CareTeam.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>CareTeam.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>CareTeam.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CareTeam.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>CareTeam.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -338,9 +511,6 @@
   </si>
   <si>
     <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>CareTeam.language</t>
@@ -420,41 +590,16 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>CareTeam.modifierExtension</t>
@@ -495,35 +640,10 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>CareTeam.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CareTeam.identifier.use</t>
@@ -575,9 +695,6 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -657,15 +774,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -693,10 +802,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -706,8 +811,8 @@
     <t>CareTeam.status</t>
   </si>
   <si>
-    <t>Statut du cercle de soin.
- Le statut prend sa valeur dans la liste suivante : proposed | active | suspended | inactive | entered-in-error</t>
+    <t>Statut du cercle de soins.
+ valeurs autorisées : proposed | active | suspended | inactive | entered-in-error</t>
   </si>
   <si>
     <t>Indicates the current state of the care team.</t>
@@ -728,7 +833,7 @@
     <t>CareTeam.category</t>
   </si>
   <si>
-    <t>Type of team</t>
+    <t>Type d’équipe. Une personne prise en charge ne peut avoir qu’un cercle de soins donc cet élément n’est pas utilisé.</t>
   </si>
   <si>
     <t>Identifies what kind of team.  This is to support differentiation between multiple co-existing teams, such as care plan team, episode of care team, longitudinal care team.</t>
@@ -740,9 +845,6 @@
     <t>Used for filtering what teams(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Indicates the type of care team.</t>
   </si>
   <si>
@@ -752,16 +854,10 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
-    <t>Name of the team, such as crisis assessment team</t>
+    <t>Nom de l’équipe tel que « Cercle de soins de Mr Dupont ».</t>
   </si>
   <si>
     <t>A label for human use intended to distinguish like teams.  E.g. the "red" vs. "green" trauma teams.</t>
@@ -777,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
+    <t xml:space="preserve">Reference(http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-patient)
 </t>
   </si>
   <si>
@@ -785,9 +881,6 @@
   </si>
   <si>
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
@@ -797,9 +890,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -822,7 +912,7 @@
     <t>CareTeam.period</t>
   </si>
   <si>
-    <t>Time period team covers</t>
+    <t>Période couverte par le cercle de soins.</t>
   </si>
   <si>
     <t>Indicates when the team did (or is intended to) come into effect and end.</t>
@@ -832,12 +922,6 @@
   </si>
   <si>
     <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
   </si>
   <si>
     <t>CareTeam.period.id</t>
@@ -853,7 +937,7 @@
 </t>
   </si>
   <si>
-    <t>Starting time with inclusive boundary</t>
+    <t>Date de création du cercle de soins.</t>
   </si>
   <si>
     <t>The start of the period. The boundary is inclusive.</t>
@@ -865,8 +949,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -878,7 +962,7 @@
     <t>CareTeam.period.end</t>
   </si>
   <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
+    <t>Date de fin d'existence du cercle de soins.</t>
   </si>
   <si>
     <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
@@ -906,7 +990,7 @@
 </t>
   </si>
   <si>
-    <t>Members of the team</t>
+    <t>Membres du cercle de soins.</t>
   </si>
   <si>
     <t>Identifies all people and organizations who are expected to be involved in the care team.</t>
@@ -915,12 +999,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t>ele-1
-ctm-1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
+    <t xml:space="preserve">ctm-1
+</t>
+  </si>
+  <si>
+    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -979,7 +1063,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization-orga-int)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
 </t>
   </si>
   <si>
@@ -1027,7 +1111,7 @@
     <t>Indicates when the specific member or organization did (or is intended to) come into effect and end.</t>
   </si>
   <si>
-    <t>This version of the profile requires period to indicate how current the participant is.</t>
+    <t>Chaque membre du Cercle de Soins dispose d’une date de début et une date de fin (optionnelle) de participation à ce cercle.</t>
   </si>
   <si>
     <t>CareTeam.participant.period.id</t>
@@ -1048,6 +1132,9 @@
     <t>CareTeam.participant.period.end</t>
   </si>
   <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
     <t>CareTeam.reasonCode</t>
   </si>
   <si>
@@ -1055,9 +1142,6 @@
   </si>
   <si>
     <t>Describes why the care team exists.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>Indicates the reason for the care team.</t>
@@ -1082,7 +1166,7 @@
     <t>CareTeam.managingOrganization</t>
   </si>
   <si>
-    <t>Organization responsible for the care team</t>
+    <t>L’organisation responsable du cercle de soins.</t>
   </si>
   <si>
     <t>The organization responsible for the care team.</t>
@@ -1098,23 +1182,13 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the care team (that applies to all members)</t>
+    <t>Point de contact central du cercle de soins (qui s’applique à tous les membres) ; élément non utilisé dans le cadre de ce volet.</t>
   </si>
   <si>
     <t>A central contact detail for the care team (that applies to all members).</t>
   </si>
   <si>
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>TEL</t>
   </si>
   <si>
     <t>CareTeam.note</t>
@@ -1124,16 +1198,10 @@
 </t>
   </si>
   <si>
-    <t>Comments made about the CareTeam</t>
+    <t>Commentaires sur le cercle de soins.</t>
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
-    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1328,120 +1396,122 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1470,7 +1540,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="233.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1497,677 +1567,675 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -2179,4346 +2247,4336 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>105</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>105</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>98</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>107</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>250</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q37" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="R37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>263</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>105</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>274</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>282</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>237</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>250</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>345</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>349</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -6530,110 +6588,992 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>353</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>100</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>357</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM46">
+  <autoFilter ref="A1:AM54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6643,7 +7583,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T07:54:16+00:00</t>
+    <t>2024-05-28T07:55:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -474,6 +481,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -590,9 +603,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -640,6 +650,12 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -774,7 +790,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -802,6 +826,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -854,6 +882,12 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -883,6 +917,9 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -890,6 +927,9 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -924,6 +964,12 @@
     <t>FiveWs.init</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
+  </si>
+  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -949,8 +995,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -999,12 +1045,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t xml:space="preserve">ctm-1
-</t>
-  </si>
-  <si>
-    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1
+ctm-1</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1144,6 +1190,9 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1191,6 +1240,16 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1202,6 +1261,12 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
+  </si>
+  <si>
+    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
+  </si>
+  <si>
+    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1632,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2003,10 +2068,10 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2015,15 +2080,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2046,13 +2111,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2103,7 +2168,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2124,19 +2189,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2155,16 +2220,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2202,19 +2267,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2223,10 +2288,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2235,15 +2300,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2269,13 +2334,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2325,7 +2390,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2334,10 +2399,10 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2346,15 +2411,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2377,16 +2442,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2436,7 +2501,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2445,10 +2510,10 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2457,15 +2522,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2488,16 +2553,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2547,7 +2612,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2556,10 +2621,10 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2568,15 +2633,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2599,16 +2664,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2658,7 +2723,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2667,10 +2732,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2679,15 +2744,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2710,16 +2775,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2745,13 +2810,13 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>76</v>
@@ -2769,7 +2834,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2778,27 +2843,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2821,16 +2886,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2856,13 +2921,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2880,7 +2945,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2889,27 +2954,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2932,16 +2997,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2991,7 +3056,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3000,10 +3065,10 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3012,15 +3077,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3043,16 +3108,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3078,13 +3143,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3102,7 +3167,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3111,10 +3176,10 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3123,19 +3188,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3154,16 +3219,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3213,7 +3278,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3222,10 +3287,10 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3234,19 +3299,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3265,16 +3330,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3324,7 +3389,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3345,19 +3410,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3376,16 +3441,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3423,19 +3488,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3444,10 +3509,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3456,19 +3521,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3487,19 +3552,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3536,19 +3601,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3557,10 +3622,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3569,15 +3634,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3600,19 +3665,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3661,7 +3726,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3670,27 +3735,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3713,13 +3778,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3770,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3791,19 +3856,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3822,16 +3887,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3869,19 +3934,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3890,10 +3955,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3902,15 +3967,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3933,19 +3998,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3970,13 +4035,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3994,7 +4059,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4003,27 +4068,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4046,19 +4111,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4083,13 +4148,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4107,7 +4172,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4116,27 +4181,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4159,19 +4224,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4184,7 +4249,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4220,7 +4285,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4229,27 +4294,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4272,19 +4337,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4297,7 +4362,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4333,7 +4398,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4342,27 +4407,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4385,15 +4450,17 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4442,7 +4509,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4451,27 +4518,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4494,16 +4561,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4553,7 +4620,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4562,27 +4629,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4605,16 +4672,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4640,13 +4707,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4664,7 +4731,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4673,27 +4740,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4716,19 +4783,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4753,13 +4820,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4777,7 +4844,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4786,27 +4853,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4829,16 +4896,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4888,7 +4955,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4897,10 +4964,10 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4909,19 +4976,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4940,17 +5007,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4999,7 +5068,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5008,27 +5077,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5051,16 +5120,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5110,7 +5179,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5119,27 +5188,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5162,17 +5231,19 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5221,7 +5292,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5230,27 +5301,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5273,13 +5344,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5330,7 +5401,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5351,19 +5422,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5382,16 +5453,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5429,19 +5500,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5450,10 +5521,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5462,15 +5533,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5493,16 +5564,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5552,7 +5623,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5561,27 +5632,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5604,23 +5675,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5665,7 +5736,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5674,27 +5745,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5717,16 +5788,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5776,7 +5847,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5785,27 +5856,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5828,13 +5899,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5885,7 +5956,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5906,19 +5977,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5937,16 +6008,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5984,19 +6055,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6005,10 +6076,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6017,19 +6088,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6048,19 +6119,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6109,7 +6180,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6118,10 +6189,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6130,15 +6201,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6161,16 +6232,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6196,13 +6267,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6220,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6229,27 +6300,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6272,19 +6343,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6333,7 +6404,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6342,27 +6413,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6385,17 +6456,19 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6444,7 +6517,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6453,10 +6526,10 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6465,15 +6538,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6496,16 +6569,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6555,7 +6628,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6564,27 +6637,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6607,13 +6680,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6664,7 +6737,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6685,19 +6758,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6716,16 +6789,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6763,19 +6836,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6784,10 +6857,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6796,15 +6869,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6827,16 +6900,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6886,7 +6959,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6895,27 +6968,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6938,23 +7011,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -6999,7 +7072,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7008,27 +7081,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7051,15 +7124,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7084,13 +7159,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7108,7 +7183,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7117,27 +7192,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7160,15 +7235,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7217,7 +7294,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7226,27 +7303,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7269,17 +7346,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7328,7 +7407,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7337,10 +7416,10 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7349,15 +7428,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7380,16 +7459,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7439,7 +7518,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7448,27 +7527,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>392</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7491,15 +7570,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7548,7 +7629,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7557,19 +7638,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T07:55:12+00:00</t>
+    <t>2024-05-28T12:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,17 +313,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -481,12 +474,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -603,6 +590,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -650,12 +640,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -790,15 +774,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -826,10 +802,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -882,12 +854,6 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -917,9 +883,6 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -927,9 +890,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -964,12 +924,6 @@
     <t>FiveWs.init</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
-  </si>
-  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -995,8 +949,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -1045,12 +999,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t>ele-1
-ctm-1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
+    <t xml:space="preserve">ctm-1
+</t>
+  </si>
+  <si>
+    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1190,9 +1144,6 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1240,16 +1191,6 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1261,12 +1202,6 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
-    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1567,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2068,11 +2003,11 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
@@ -2080,15 +2015,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2111,13 +2046,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2168,7 +2103,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2189,19 +2124,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2220,16 +2155,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2267,19 +2202,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2288,10 +2223,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2300,15 +2235,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2334,13 +2269,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2390,7 +2325,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2399,11 +2334,11 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
@@ -2411,15 +2346,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2442,16 +2377,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2501,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2510,11 +2445,11 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
       </c>
@@ -2522,15 +2457,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2553,16 +2488,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2612,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2621,11 +2556,11 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
@@ -2633,15 +2568,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2664,16 +2599,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2723,7 +2658,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2732,11 +2667,11 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2744,15 +2679,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2775,16 +2710,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2810,31 +2745,31 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2843,27 +2778,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2886,16 +2821,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2921,13 +2856,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2945,7 +2880,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2954,27 +2889,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2997,16 +2932,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3056,7 +2991,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3065,11 +3000,11 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3077,15 +3012,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3108,16 +3043,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3143,13 +3078,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3167,7 +3102,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3176,11 +3111,11 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3188,19 +3123,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3219,16 +3154,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3278,7 +3213,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3287,11 +3222,11 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3299,19 +3234,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3330,16 +3265,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3389,7 +3324,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3410,19 +3345,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3441,16 +3376,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3488,19 +3423,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3509,10 +3444,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3521,19 +3456,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3552,19 +3487,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3601,19 +3536,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3622,10 +3557,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3634,15 +3569,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3665,19 +3600,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3726,7 +3661,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3735,27 +3670,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3778,13 +3713,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3835,7 +3770,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3856,19 +3791,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3887,16 +3822,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3934,19 +3869,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3955,10 +3890,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3967,15 +3902,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3998,19 +3933,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4035,13 +3970,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4059,7 +3994,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4068,27 +4003,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4111,19 +4046,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4148,13 +4083,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4172,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4181,27 +4116,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4224,19 +4159,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4249,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4285,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4294,27 +4229,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4337,19 +4272,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4362,7 +4297,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4398,7 +4333,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4407,27 +4342,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4450,17 +4385,15 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4509,7 +4442,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4518,27 +4451,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4561,16 +4494,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4620,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4629,27 +4562,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4672,16 +4605,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4707,13 +4640,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4731,7 +4664,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4740,27 +4673,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4783,19 +4716,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4820,13 +4753,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4844,7 +4777,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4853,27 +4786,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4896,16 +4829,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4955,7 +4888,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4964,11 +4897,11 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4976,19 +4909,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5007,19 +4940,17 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5068,7 +4999,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5077,27 +5008,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5120,16 +5051,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5179,7 +5110,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5188,27 +5119,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5231,19 +5162,17 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5292,7 +5221,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5301,27 +5230,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5344,13 +5273,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5401,7 +5330,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5422,19 +5351,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5453,16 +5382,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5500,19 +5429,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5521,10 +5450,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5533,15 +5462,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5564,16 +5493,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5623,7 +5552,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5632,27 +5561,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5675,23 +5604,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5736,7 +5665,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5745,27 +5674,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5788,16 +5717,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5847,7 +5776,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5856,27 +5785,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5899,13 +5828,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5956,7 +5885,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5977,19 +5906,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6008,16 +5937,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6055,19 +5984,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6076,10 +6005,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6088,19 +6017,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6119,19 +6048,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6180,7 +6109,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6189,10 +6118,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6201,15 +6130,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6232,16 +6161,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6267,13 +6196,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6291,7 +6220,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6300,27 +6229,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6343,19 +6272,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6404,7 +6333,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6413,27 +6342,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6456,19 +6385,17 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6517,7 +6444,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6526,11 +6453,11 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6538,15 +6465,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6569,16 +6496,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6628,7 +6555,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6637,27 +6564,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6680,13 +6607,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6737,7 +6664,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6758,19 +6685,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6789,16 +6716,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6836,19 +6763,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6857,10 +6784,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6869,15 +6796,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6900,16 +6827,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6959,7 +6886,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6968,27 +6895,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7011,23 +6938,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -7072,7 +6999,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7081,27 +7008,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7124,17 +7051,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7159,13 +7084,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7183,7 +7108,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7192,27 +7117,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7235,17 +7160,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7294,7 +7217,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7303,27 +7226,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7346,19 +7269,17 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7407,7 +7328,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7416,11 +7337,11 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7428,15 +7349,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7459,16 +7380,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7518,7 +7439,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7527,27 +7448,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7570,17 +7491,15 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7629,7 +7548,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7638,19 +7557,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:10:40+00:00</t>
+    <t>2024-05-28T12:12:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -474,6 +481,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -590,9 +603,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -640,6 +650,12 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -774,7 +790,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -802,6 +826,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -854,6 +882,12 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -883,6 +917,9 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -890,6 +927,9 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -924,6 +964,12 @@
     <t>FiveWs.init</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
+  </si>
+  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -949,8 +995,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -999,12 +1045,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t xml:space="preserve">ctm-1
-</t>
-  </si>
-  <si>
-    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1
+ctm-1</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1144,6 +1190,9 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1191,6 +1240,16 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1202,6 +1261,12 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
+  </si>
+  <si>
+    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
+  </si>
+  <si>
+    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1632,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2003,10 +2068,10 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2015,15 +2080,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2046,13 +2111,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2103,7 +2168,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2124,19 +2189,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2155,16 +2220,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2202,19 +2267,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2223,10 +2288,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2235,15 +2300,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2269,13 +2334,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2325,7 +2390,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2334,10 +2399,10 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2346,15 +2411,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2377,16 +2442,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2436,7 +2501,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2445,10 +2510,10 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2457,15 +2522,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2488,16 +2553,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2547,7 +2612,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2556,10 +2621,10 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2568,15 +2633,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2599,16 +2664,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2658,7 +2723,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2667,10 +2732,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2679,15 +2744,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2710,16 +2775,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2745,13 +2810,13 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>76</v>
@@ -2769,7 +2834,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2778,27 +2843,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2821,16 +2886,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2856,13 +2921,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2880,7 +2945,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2889,27 +2954,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2932,16 +2997,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2991,7 +3056,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3000,10 +3065,10 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3012,15 +3077,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3043,16 +3108,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3078,13 +3143,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3102,7 +3167,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3111,10 +3176,10 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3123,19 +3188,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3154,16 +3219,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3213,7 +3278,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3222,10 +3287,10 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3234,19 +3299,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3265,16 +3330,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3324,7 +3389,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3345,19 +3410,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3376,16 +3441,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3423,19 +3488,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3444,10 +3509,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3456,19 +3521,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3487,19 +3552,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3536,19 +3601,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3557,10 +3622,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3569,15 +3634,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3600,19 +3665,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3661,7 +3726,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3670,27 +3735,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3713,13 +3778,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3770,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3791,19 +3856,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3822,16 +3887,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3869,19 +3934,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3890,10 +3955,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3902,15 +3967,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3933,19 +3998,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3970,13 +4035,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3994,7 +4059,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4003,27 +4068,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4046,19 +4111,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4083,13 +4148,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4107,7 +4172,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4116,27 +4181,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4159,19 +4224,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4184,7 +4249,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4220,7 +4285,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4229,27 +4294,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4272,19 +4337,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4297,7 +4362,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4333,7 +4398,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4342,27 +4407,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4385,15 +4450,17 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4442,7 +4509,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4451,27 +4518,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4494,16 +4561,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4553,7 +4620,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4562,27 +4629,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4605,16 +4672,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4640,13 +4707,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4664,7 +4731,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4673,27 +4740,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4716,19 +4783,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4753,13 +4820,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4777,7 +4844,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4786,27 +4853,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4829,16 +4896,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4888,7 +4955,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4897,10 +4964,10 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4909,19 +4976,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4940,17 +5007,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4999,7 +5068,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5008,27 +5077,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5051,16 +5120,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5110,7 +5179,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5119,27 +5188,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5162,17 +5231,19 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5221,7 +5292,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5230,27 +5301,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5273,13 +5344,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5330,7 +5401,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5351,19 +5422,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5382,16 +5453,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5429,19 +5500,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5450,10 +5521,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5462,15 +5533,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5493,16 +5564,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5552,7 +5623,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5561,27 +5632,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5604,23 +5675,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5665,7 +5736,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5674,27 +5745,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5717,16 +5788,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5776,7 +5847,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5785,27 +5856,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5828,13 +5899,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5885,7 +5956,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5906,19 +5977,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5937,16 +6008,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5984,19 +6055,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6005,10 +6076,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6017,19 +6088,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6048,19 +6119,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6109,7 +6180,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6118,10 +6189,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6130,15 +6201,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6161,16 +6232,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6196,13 +6267,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6220,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6229,27 +6300,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6272,19 +6343,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6333,7 +6404,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6342,27 +6413,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6385,17 +6456,19 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6444,7 +6517,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6453,10 +6526,10 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6465,15 +6538,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6496,16 +6569,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6555,7 +6628,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6564,27 +6637,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6607,13 +6680,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6664,7 +6737,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6685,19 +6758,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6716,16 +6789,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6763,19 +6836,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6784,10 +6857,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6796,15 +6869,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6827,16 +6900,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6886,7 +6959,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6895,27 +6968,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6938,23 +7011,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -6999,7 +7072,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7008,27 +7081,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7051,15 +7124,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7084,13 +7159,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7108,7 +7183,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7117,27 +7192,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7160,15 +7235,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7217,7 +7294,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7226,27 +7303,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7269,17 +7346,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7328,7 +7407,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7337,10 +7416,10 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7349,15 +7428,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7380,16 +7459,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7439,7 +7518,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7448,27 +7527,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>392</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7491,15 +7570,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7548,7 +7629,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7557,19 +7638,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:12:57+00:00</t>
+    <t>2024-05-28T13:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,17 +313,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -481,12 +474,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -603,6 +590,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -650,12 +640,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -790,15 +774,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -826,10 +802,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -882,12 +854,6 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -917,9 +883,6 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -927,9 +890,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -964,12 +924,6 @@
     <t>FiveWs.init</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
-  </si>
-  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -995,8 +949,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -1045,12 +999,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t>ele-1
-ctm-1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
+    <t xml:space="preserve">ctm-1
+</t>
+  </si>
+  <si>
+    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1190,9 +1144,6 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1240,16 +1191,6 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1261,12 +1202,6 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
-    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1567,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2068,11 +2003,11 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
@@ -2080,15 +2015,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2111,13 +2046,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2168,7 +2103,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2189,19 +2124,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2220,16 +2155,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2267,19 +2202,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2288,10 +2223,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2300,15 +2235,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2334,13 +2269,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2390,7 +2325,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2399,11 +2334,11 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
@@ -2411,15 +2346,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2442,16 +2377,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2501,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2510,11 +2445,11 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
       </c>
@@ -2522,15 +2457,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2553,16 +2488,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2612,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2621,11 +2556,11 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
@@ -2633,15 +2568,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2664,16 +2599,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2723,7 +2658,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2732,11 +2667,11 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2744,15 +2679,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2775,16 +2710,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2810,31 +2745,31 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2843,27 +2778,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2886,16 +2821,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2921,13 +2856,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2945,7 +2880,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2954,27 +2889,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2997,16 +2932,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3056,7 +2991,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3065,11 +3000,11 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3077,15 +3012,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3108,16 +3043,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3143,13 +3078,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3167,7 +3102,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3176,11 +3111,11 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3188,19 +3123,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3219,16 +3154,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3278,7 +3213,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3287,11 +3222,11 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3299,19 +3234,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3330,16 +3265,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3389,7 +3324,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3410,19 +3345,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3441,16 +3376,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3488,19 +3423,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3509,10 +3444,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3521,19 +3456,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3552,19 +3487,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3601,19 +3536,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3622,10 +3557,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3634,15 +3569,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3665,19 +3600,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3726,7 +3661,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3735,27 +3670,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3778,13 +3713,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3835,7 +3770,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3856,19 +3791,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3887,16 +3822,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3934,19 +3869,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3955,10 +3890,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3967,15 +3902,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3998,19 +3933,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4035,13 +3970,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4059,7 +3994,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4068,27 +4003,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4111,19 +4046,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4148,13 +4083,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4172,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4181,27 +4116,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4224,19 +4159,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4249,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4285,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4294,27 +4229,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4337,19 +4272,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4362,7 +4297,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4398,7 +4333,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4407,27 +4342,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4450,17 +4385,15 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4509,7 +4442,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4518,27 +4451,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4561,16 +4494,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4620,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4629,27 +4562,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4672,16 +4605,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4707,13 +4640,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4731,7 +4664,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4740,27 +4673,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4783,19 +4716,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4820,13 +4753,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4844,7 +4777,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4853,27 +4786,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4896,16 +4829,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4955,7 +4888,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4964,11 +4897,11 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4976,19 +4909,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5007,19 +4940,17 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5068,7 +4999,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5077,27 +5008,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5120,16 +5051,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5179,7 +5110,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5188,27 +5119,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5231,19 +5162,17 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5292,7 +5221,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5301,27 +5230,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5344,13 +5273,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5401,7 +5330,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5422,19 +5351,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5453,16 +5382,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5500,19 +5429,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5521,10 +5450,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5533,15 +5462,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5564,16 +5493,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5623,7 +5552,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5632,27 +5561,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5675,23 +5604,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5736,7 +5665,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5745,27 +5674,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5788,16 +5717,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5847,7 +5776,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5856,27 +5785,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5899,13 +5828,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5956,7 +5885,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5977,19 +5906,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6008,16 +5937,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6055,19 +5984,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6076,10 +6005,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6088,19 +6017,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6119,19 +6048,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6180,7 +6109,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6189,10 +6118,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6201,15 +6130,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6232,16 +6161,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6267,13 +6196,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6291,7 +6220,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6300,27 +6229,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6343,19 +6272,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6404,7 +6333,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6413,27 +6342,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6456,19 +6385,17 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6517,7 +6444,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6526,11 +6453,11 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6538,15 +6465,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6569,16 +6496,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6628,7 +6555,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6637,27 +6564,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6680,13 +6607,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6737,7 +6664,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6758,19 +6685,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6789,16 +6716,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6836,19 +6763,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6857,10 +6784,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6869,15 +6796,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6900,16 +6827,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6959,7 +6886,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6968,27 +6895,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7011,23 +6938,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -7072,7 +6999,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7081,27 +7008,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7124,17 +7051,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7159,13 +7084,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7183,7 +7108,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7192,27 +7117,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7235,17 +7160,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7294,7 +7217,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7303,27 +7226,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7346,19 +7269,17 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7407,7 +7328,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7416,11 +7337,11 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7428,15 +7349,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7459,16 +7380,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7518,7 +7439,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7527,27 +7448,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7570,17 +7491,15 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7629,7 +7548,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7638,19 +7557,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:46:04+00:00</t>
+    <t>2024-05-28T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -474,6 +481,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -590,9 +603,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -640,6 +650,12 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -774,7 +790,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -802,6 +826,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -854,6 +882,12 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -883,6 +917,9 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -890,6 +927,9 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -924,6 +964,12 @@
     <t>FiveWs.init</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
+  </si>
+  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -949,8 +995,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -999,12 +1045,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t xml:space="preserve">ctm-1
-</t>
-  </si>
-  <si>
-    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1
+ctm-1</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1144,6 +1190,9 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1191,6 +1240,16 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1202,6 +1261,12 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
+  </si>
+  <si>
+    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
+  </si>
+  <si>
+    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1632,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2003,10 +2068,10 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2015,15 +2080,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2046,13 +2111,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2103,7 +2168,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2124,19 +2189,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2155,16 +2220,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2202,19 +2267,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2223,10 +2288,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2235,15 +2300,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2269,13 +2334,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2325,7 +2390,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2334,10 +2399,10 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2346,15 +2411,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2377,16 +2442,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2436,7 +2501,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2445,10 +2510,10 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2457,15 +2522,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2488,16 +2553,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2547,7 +2612,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2556,10 +2621,10 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2568,15 +2633,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2599,16 +2664,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2658,7 +2723,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2667,10 +2732,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2679,15 +2744,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2710,16 +2775,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2745,13 +2810,13 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>76</v>
@@ -2769,7 +2834,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2778,27 +2843,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2821,16 +2886,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2856,13 +2921,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2880,7 +2945,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2889,27 +2954,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2932,16 +2997,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2991,7 +3056,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3000,10 +3065,10 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3012,15 +3077,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3043,16 +3108,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3078,13 +3143,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3102,7 +3167,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3111,10 +3176,10 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3123,19 +3188,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3154,16 +3219,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3213,7 +3278,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3222,10 +3287,10 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3234,19 +3299,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3265,16 +3330,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3324,7 +3389,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3345,19 +3410,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3376,16 +3441,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3423,19 +3488,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3444,10 +3509,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3456,19 +3521,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3487,19 +3552,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3536,19 +3601,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3557,10 +3622,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3569,15 +3634,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3600,19 +3665,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3661,7 +3726,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3670,27 +3735,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3713,13 +3778,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3770,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3791,19 +3856,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3822,16 +3887,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3869,19 +3934,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3890,10 +3955,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3902,15 +3967,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3933,19 +3998,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3970,13 +4035,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3994,7 +4059,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4003,27 +4068,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4046,19 +4111,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4083,13 +4148,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4107,7 +4172,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4116,27 +4181,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4159,19 +4224,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4184,7 +4249,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4220,7 +4285,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4229,27 +4294,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4272,19 +4337,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4297,7 +4362,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4333,7 +4398,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4342,27 +4407,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4385,15 +4450,17 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4442,7 +4509,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4451,27 +4518,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4494,16 +4561,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4553,7 +4620,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4562,27 +4629,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4605,16 +4672,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4640,13 +4707,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4664,7 +4731,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4673,27 +4740,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4716,19 +4783,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4753,13 +4820,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4777,7 +4844,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4786,27 +4853,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4829,16 +4896,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4888,7 +4955,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4897,10 +4964,10 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4909,19 +4976,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4940,17 +5007,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4999,7 +5068,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5008,27 +5077,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5051,16 +5120,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5110,7 +5179,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5119,27 +5188,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5162,17 +5231,19 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5221,7 +5292,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5230,27 +5301,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5273,13 +5344,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5330,7 +5401,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5351,19 +5422,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5382,16 +5453,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5429,19 +5500,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5450,10 +5521,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5462,15 +5533,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5493,16 +5564,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5552,7 +5623,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5561,27 +5632,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5604,23 +5675,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5665,7 +5736,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5674,27 +5745,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5717,16 +5788,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5776,7 +5847,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5785,27 +5856,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5828,13 +5899,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5885,7 +5956,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5906,19 +5977,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5937,16 +6008,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5984,19 +6055,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6005,10 +6076,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6017,19 +6088,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6048,19 +6119,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6109,7 +6180,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6118,10 +6189,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6130,15 +6201,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6161,16 +6232,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6196,13 +6267,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6220,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6229,27 +6300,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6272,19 +6343,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6333,7 +6404,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6342,27 +6413,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6385,17 +6456,19 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6444,7 +6517,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6453,10 +6526,10 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6465,15 +6538,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6496,16 +6569,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6555,7 +6628,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6564,27 +6637,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6607,13 +6680,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6664,7 +6737,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6685,19 +6758,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6716,16 +6789,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6763,19 +6836,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6784,10 +6857,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6796,15 +6869,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6827,16 +6900,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6886,7 +6959,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6895,27 +6968,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6938,23 +7011,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -6999,7 +7072,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7008,27 +7081,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7051,15 +7124,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7084,13 +7159,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7108,7 +7183,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7117,27 +7192,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7160,15 +7235,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7217,7 +7294,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7226,27 +7303,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7269,17 +7346,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7328,7 +7407,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7337,10 +7416,10 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7349,15 +7428,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7380,16 +7459,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7439,7 +7518,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7448,27 +7527,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>392</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7491,15 +7570,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7548,7 +7629,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7557,19 +7638,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:46:56+00:00</t>
+    <t>2024-05-28T14:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,17 +313,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -481,12 +474,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -603,6 +590,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -650,12 +640,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -790,15 +774,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -826,10 +802,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -882,12 +854,6 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -917,9 +883,6 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -927,9 +890,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -964,12 +924,6 @@
     <t>FiveWs.init</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
-  </si>
-  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -995,8 +949,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -1045,12 +999,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t>ele-1
-ctm-1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
+    <t xml:space="preserve">ctm-1
+</t>
+  </si>
+  <si>
+    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1190,9 +1144,6 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1240,16 +1191,6 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1261,12 +1202,6 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
-    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1567,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2068,11 +2003,11 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
@@ -2080,15 +2015,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2111,13 +2046,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2168,7 +2103,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2189,19 +2124,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2220,16 +2155,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2267,19 +2202,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2288,10 +2223,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2300,15 +2235,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2334,13 +2269,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2390,7 +2325,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2399,11 +2334,11 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
@@ -2411,15 +2346,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2442,16 +2377,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2501,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2510,11 +2445,11 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
       </c>
@@ -2522,15 +2457,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2553,16 +2488,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2612,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2621,11 +2556,11 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
@@ -2633,15 +2568,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2664,16 +2599,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2723,7 +2658,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2732,11 +2667,11 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2744,15 +2679,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2775,16 +2710,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2810,31 +2745,31 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2843,27 +2778,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2886,16 +2821,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2921,13 +2856,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2945,7 +2880,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2954,27 +2889,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2997,16 +2932,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3056,7 +2991,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3065,11 +3000,11 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3077,15 +3012,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3108,16 +3043,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3143,13 +3078,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3167,7 +3102,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3176,11 +3111,11 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3188,19 +3123,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3219,16 +3154,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3278,7 +3213,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3287,11 +3222,11 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3299,19 +3234,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3330,16 +3265,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3389,7 +3324,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3410,19 +3345,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3441,16 +3376,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3488,19 +3423,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3509,10 +3444,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3521,19 +3456,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3552,19 +3487,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3601,19 +3536,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3622,10 +3557,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3634,15 +3569,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3665,19 +3600,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3726,7 +3661,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3735,27 +3670,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3778,13 +3713,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3835,7 +3770,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3856,19 +3791,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3887,16 +3822,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3934,19 +3869,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3955,10 +3890,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3967,15 +3902,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3998,19 +3933,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4035,13 +3970,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4059,7 +3994,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4068,27 +4003,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4111,19 +4046,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4148,13 +4083,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4172,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4181,27 +4116,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4224,19 +4159,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4249,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4285,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4294,27 +4229,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4337,19 +4272,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4362,7 +4297,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4398,7 +4333,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4407,27 +4342,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4450,17 +4385,15 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4509,7 +4442,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4518,27 +4451,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4561,16 +4494,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4620,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4629,27 +4562,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4672,16 +4605,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4707,13 +4640,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4731,7 +4664,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4740,27 +4673,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4783,19 +4716,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4820,13 +4753,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4844,7 +4777,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4853,27 +4786,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4896,16 +4829,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4955,7 +4888,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4964,11 +4897,11 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4976,19 +4909,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5007,19 +4940,17 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5068,7 +4999,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5077,27 +5008,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5120,16 +5051,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5179,7 +5110,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5188,27 +5119,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5231,19 +5162,17 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5292,7 +5221,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5301,27 +5230,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5344,13 +5273,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5401,7 +5330,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5422,19 +5351,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5453,16 +5382,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5500,19 +5429,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5521,10 +5450,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5533,15 +5462,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5564,16 +5493,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5623,7 +5552,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5632,27 +5561,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5675,23 +5604,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5736,7 +5665,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5745,27 +5674,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5788,16 +5717,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5847,7 +5776,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5856,27 +5785,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5899,13 +5828,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5956,7 +5885,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5977,19 +5906,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6008,16 +5937,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6055,19 +5984,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6076,10 +6005,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6088,19 +6017,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6119,19 +6048,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6180,7 +6109,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6189,10 +6118,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6201,15 +6130,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6232,16 +6161,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6267,13 +6196,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6291,7 +6220,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6300,27 +6229,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6343,19 +6272,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6404,7 +6333,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6413,27 +6342,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6456,19 +6385,17 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6517,7 +6444,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6526,11 +6453,11 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6538,15 +6465,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6569,16 +6496,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6628,7 +6555,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6637,27 +6564,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6680,13 +6607,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6737,7 +6664,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6758,19 +6685,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6789,16 +6716,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6836,19 +6763,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6857,10 +6784,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6869,15 +6796,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6900,16 +6827,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6959,7 +6886,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6968,27 +6895,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7011,23 +6938,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -7072,7 +6999,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7081,27 +7008,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7124,17 +7051,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7159,13 +7084,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7183,7 +7108,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7192,27 +7117,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7235,17 +7160,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7294,7 +7217,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7303,27 +7226,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7346,19 +7269,17 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7407,7 +7328,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7416,11 +7337,11 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7428,15 +7349,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7459,16 +7380,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7518,7 +7439,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7527,27 +7448,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7570,17 +7491,15 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7629,7 +7548,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7638,19 +7557,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:08:32+00:00</t>
+    <t>2024-05-31T13:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -873,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T13:43:47+00:00</t>
+    <t>2024-06-25T20:35:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T20:35:23+00:00</t>
+    <t>2024-06-26T07:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T07:47:20+00:00</t>
+    <t>2024-06-26T08:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T08:46:49+00:00</t>
+    <t>2024-06-27T12:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1048,10 +1048,7 @@
     <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.</t>
   </si>
   <si>
-    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
   </si>
   <si>
     <t>REL.2 (or PRT-4?)</t>
@@ -1554,8 +1551,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.23828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -6196,13 +6193,11 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y42" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y42" s="2"/>
+      <c r="Z42" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6238,18 +6233,18 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6272,19 +6267,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6333,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6348,21 +6343,21 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6388,14 +6383,14 @@
         <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6444,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6470,10 +6465,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6499,13 +6494,13 @@
         <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6555,7 +6550,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6581,10 +6576,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6690,10 +6685,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6801,10 +6796,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6830,13 +6825,13 @@
         <v>295</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>297</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6912,10 +6907,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6941,7 +6936,7 @@
         <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>305</v>
@@ -7025,10 +7020,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7054,10 +7049,10 @@
         <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7087,11 +7082,11 @@
         <v>151</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7108,7 +7103,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7123,7 +7118,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7134,10 +7129,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7160,13 +7155,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7217,7 +7212,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7232,7 +7227,7 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7243,10 +7238,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7272,14 +7267,14 @@
         <v>248</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7328,7 +7323,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7354,10 +7349,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7380,16 +7375,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7439,7 +7434,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7465,10 +7460,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7491,13 +7486,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7548,7 +7543,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:29:52+00:00</t>
+    <t>2024-06-27T12:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:58:56+00:00</t>
+    <t>2024-07-04T11:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -474,6 +481,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -590,9 +603,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -640,6 +650,12 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -774,7 +790,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -802,6 +826,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -854,6 +882,12 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -883,6 +917,9 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -890,6 +927,9 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -924,6 +964,12 @@
     <t>FiveWs.init</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
+  </si>
+  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -949,8 +995,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -999,12 +1045,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t xml:space="preserve">ctm-1
-</t>
-  </si>
-  <si>
-    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1
+ctm-1</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1141,6 +1187,9 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1188,6 +1237,16 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1199,6 +1258,12 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
+  </si>
+  <si>
+    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
+  </si>
+  <si>
+    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1629,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2000,10 +2065,10 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2012,15 +2077,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2043,13 +2108,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2100,7 +2165,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2121,19 +2186,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2152,16 +2217,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2199,19 +2264,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2220,10 +2285,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2232,15 +2297,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2266,13 +2331,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2322,7 +2387,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2331,10 +2396,10 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2343,15 +2408,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2374,16 +2439,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2433,7 +2498,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2442,10 +2507,10 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2454,15 +2519,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2485,16 +2550,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2544,7 +2609,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2553,10 +2618,10 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2565,15 +2630,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2596,16 +2661,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2655,7 +2720,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2664,10 +2729,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2676,15 +2741,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2707,16 +2772,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2742,13 +2807,13 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>76</v>
@@ -2766,7 +2831,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2775,27 +2840,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2818,16 +2883,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2853,13 +2918,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2877,7 +2942,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2886,27 +2951,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2929,16 +2994,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2988,7 +3053,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2997,10 +3062,10 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3009,15 +3074,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3040,16 +3105,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3075,13 +3140,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3099,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3108,10 +3173,10 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3120,19 +3185,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3151,16 +3216,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3210,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3219,10 +3284,10 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3231,19 +3296,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3262,16 +3327,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3321,7 +3386,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3342,19 +3407,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3373,16 +3438,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3420,19 +3485,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3441,10 +3506,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3453,19 +3518,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3484,19 +3549,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3533,19 +3598,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3554,10 +3619,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3566,15 +3631,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3597,19 +3662,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3658,7 +3723,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3667,27 +3732,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3710,13 +3775,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3767,7 +3832,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3788,19 +3853,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3819,16 +3884,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3866,19 +3931,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3887,10 +3952,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3899,15 +3964,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3930,19 +3995,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3967,13 +4032,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3991,7 +4056,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4000,27 +4065,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4043,19 +4108,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4080,13 +4145,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4104,7 +4169,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4113,27 +4178,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4156,19 +4221,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4181,7 +4246,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4217,7 +4282,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4226,27 +4291,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4269,19 +4334,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4294,7 +4359,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4330,7 +4395,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4339,27 +4404,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4382,15 +4447,17 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4439,7 +4506,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4448,27 +4515,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4491,16 +4558,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4550,7 +4617,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4559,27 +4626,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4602,16 +4669,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4637,13 +4704,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4661,7 +4728,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4670,27 +4737,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4713,19 +4780,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4750,13 +4817,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4774,7 +4841,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4783,27 +4850,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4826,16 +4893,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4885,7 +4952,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4894,10 +4961,10 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4906,19 +4973,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4937,17 +5004,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4996,7 +5065,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5005,27 +5074,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5048,16 +5117,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5107,7 +5176,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5116,27 +5185,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5159,17 +5228,19 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5218,7 +5289,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5227,27 +5298,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5270,13 +5341,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5327,7 +5398,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5348,19 +5419,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5379,16 +5450,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5426,19 +5497,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5447,10 +5518,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5459,15 +5530,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5490,16 +5561,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5549,7 +5620,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5558,27 +5629,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5601,23 +5672,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5662,7 +5733,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5671,27 +5742,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5714,16 +5785,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5773,7 +5844,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5782,27 +5853,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5825,13 +5896,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5882,7 +5953,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5903,19 +5974,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5934,16 +6005,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5981,19 +6052,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6002,10 +6073,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6014,19 +6085,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6045,19 +6116,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6106,7 +6177,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6115,10 +6186,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6127,15 +6198,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6158,16 +6229,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6193,11 +6264,11 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6215,7 +6286,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6224,27 +6295,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6267,19 +6338,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6328,7 +6399,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6337,27 +6408,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6380,17 +6451,19 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6439,7 +6512,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6448,10 +6521,10 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6460,15 +6533,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6491,16 +6564,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6550,7 +6623,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6559,27 +6632,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6602,13 +6675,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6659,7 +6732,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6680,19 +6753,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6711,16 +6784,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6758,19 +6831,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6779,10 +6852,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6791,15 +6864,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6822,16 +6895,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6881,7 +6954,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6890,27 +6963,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6933,23 +7006,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -6994,7 +7067,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7003,27 +7076,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7046,15 +7119,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7079,13 +7154,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7103,7 +7178,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7112,27 +7187,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7155,15 +7230,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7212,7 +7289,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7221,27 +7298,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7264,17 +7341,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7323,7 +7402,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7332,10 +7411,10 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7344,15 +7423,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7375,16 +7454,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7434,7 +7513,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7443,27 +7522,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>391</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7486,15 +7565,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7543,7 +7624,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7552,19 +7633,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:48:06+00:00</t>
+    <t>2024-07-04T11:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,17 +313,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -481,12 +474,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -603,6 +590,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -650,12 +640,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -790,15 +774,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -826,10 +802,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -882,12 +854,6 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -917,9 +883,6 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -927,9 +890,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -964,12 +924,6 @@
     <t>FiveWs.init</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
-  </si>
-  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -995,8 +949,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -1045,12 +999,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t>ele-1
-ctm-1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
+    <t xml:space="preserve">ctm-1
+</t>
+  </si>
+  <si>
+    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1187,9 +1141,6 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1237,16 +1188,6 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1258,12 +1199,6 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
-    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1564,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2065,11 +2000,11 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
@@ -2077,15 +2012,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2108,13 +2043,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2165,7 +2100,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2186,19 +2121,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2217,16 +2152,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2264,19 +2199,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2285,10 +2220,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2297,15 +2232,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2331,13 +2266,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2387,7 +2322,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2396,11 +2331,11 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
@@ -2408,15 +2343,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2439,16 +2374,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2498,7 +2433,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2507,11 +2442,11 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
       </c>
@@ -2519,15 +2454,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2550,16 +2485,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2609,7 +2544,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2618,11 +2553,11 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
@@ -2630,15 +2565,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2661,16 +2596,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2720,7 +2655,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2729,11 +2664,11 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2741,15 +2676,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2772,16 +2707,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2807,31 +2742,31 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2840,27 +2775,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2883,16 +2818,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2918,13 +2853,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2942,7 +2877,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2951,27 +2886,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2994,16 +2929,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3053,7 +2988,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3062,11 +2997,11 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3074,15 +3009,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3105,16 +3040,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3140,13 +3075,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3164,7 +3099,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3173,11 +3108,11 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3185,19 +3120,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3216,16 +3151,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3275,7 +3210,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3284,11 +3219,11 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3296,19 +3231,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3327,16 +3262,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3386,7 +3321,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3407,19 +3342,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3438,16 +3373,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3485,19 +3420,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3506,10 +3441,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3518,19 +3453,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3549,19 +3484,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3598,19 +3533,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3619,10 +3554,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3631,15 +3566,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3662,19 +3597,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3723,7 +3658,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3732,27 +3667,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3775,13 +3710,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3832,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3853,19 +3788,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3884,16 +3819,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3931,19 +3866,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3952,10 +3887,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3964,15 +3899,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3995,19 +3930,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4032,13 +3967,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4056,7 +3991,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4065,27 +4000,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4108,19 +4043,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4145,13 +4080,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4169,7 +4104,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4178,27 +4113,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4221,19 +4156,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4246,7 +4181,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4282,7 +4217,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4291,27 +4226,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4334,19 +4269,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4359,7 +4294,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4395,7 +4330,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4404,27 +4339,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4447,17 +4382,15 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4506,7 +4439,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4515,27 +4448,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4558,16 +4491,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4617,7 +4550,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4626,27 +4559,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4669,16 +4602,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4704,13 +4637,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4728,7 +4661,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4737,27 +4670,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4780,19 +4713,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4817,13 +4750,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4841,7 +4774,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4850,27 +4783,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4893,16 +4826,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4952,7 +4885,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4961,11 +4894,11 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4973,19 +4906,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5004,19 +4937,17 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5065,7 +4996,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5074,27 +5005,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5117,16 +5048,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5176,7 +5107,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5185,27 +5116,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5228,19 +5159,17 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5289,7 +5218,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5298,27 +5227,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5341,13 +5270,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5398,7 +5327,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5419,19 +5348,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5450,16 +5379,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5497,19 +5426,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5518,10 +5447,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5530,15 +5459,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5561,16 +5490,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5620,7 +5549,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5629,27 +5558,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5672,23 +5601,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5733,7 +5662,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5742,27 +5671,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5785,16 +5714,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5844,7 +5773,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5853,27 +5782,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5896,13 +5825,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5953,7 +5882,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5974,19 +5903,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6005,16 +5934,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6052,19 +5981,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6073,10 +6002,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6085,19 +6014,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6116,19 +6045,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6177,7 +6106,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6186,10 +6115,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6198,15 +6127,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6229,16 +6158,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6264,11 +6193,11 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6286,7 +6215,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6295,27 +6224,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6338,19 +6267,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6399,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6408,27 +6337,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6451,19 +6380,17 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6512,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6521,11 +6448,11 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6533,15 +6460,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6564,16 +6491,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6623,7 +6550,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6632,27 +6559,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6675,13 +6602,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6732,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6753,19 +6680,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6784,16 +6711,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6831,19 +6758,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6852,10 +6779,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6864,15 +6791,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6895,16 +6822,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6954,7 +6881,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6963,27 +6890,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7006,23 +6933,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -7067,7 +6994,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7076,27 +7003,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7119,17 +7046,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7154,13 +7079,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7178,7 +7103,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7187,27 +7112,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7230,17 +7155,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7289,7 +7212,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7298,27 +7221,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7341,19 +7264,17 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7402,7 +7323,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7411,11 +7332,11 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7423,15 +7344,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7454,16 +7375,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7513,7 +7434,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7522,27 +7443,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7565,17 +7486,15 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7624,7 +7543,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7633,19 +7552,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-ihe-careteam</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-ihe-careteam</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:53:56+00:00</t>
+    <t>2024-07-04T11:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1048,7 +1048,7 @@
     <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
   </si>
   <si>
     <t>REL.2 (or PRT-4?)</t>
@@ -1060,7 +1060,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
 </t>
   </si>
   <si>
@@ -1537,7 +1537,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="233.90234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="235.8125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1552,7 +1552,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.81640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-ihe-careteam</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-ihe-careteam</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:58:25+00:00</t>
+    <t>2024-07-04T11:58:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,10 +313,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -474,6 +481,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -590,9 +603,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -640,6 +650,12 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -774,7 +790,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -802,6 +826,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -854,6 +882,12 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -883,6 +917,9 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -890,6 +927,9 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -924,6 +964,12 @@
     <t>FiveWs.init</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
+  </si>
+  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -949,8 +995,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -999,12 +1045,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t xml:space="preserve">ctm-1
-</t>
-  </si>
-  <si>
-    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1
+ctm-1</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1048,7 +1094,7 @@
     <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
   </si>
   <si>
     <t>REL.2 (or PRT-4?)</t>
@@ -1060,7 +1106,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
 </t>
   </si>
   <si>
@@ -1141,6 +1187,9 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1188,6 +1237,16 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1199,6 +1258,12 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
+  </si>
+  <si>
+    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
+  </si>
+  <si>
+    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1602,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="235.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="233.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1552,7 +1617,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.81640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1564,7 +1629,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2000,10 +2065,10 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2012,15 +2077,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2043,13 +2108,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2100,7 +2165,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2121,19 +2186,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2152,16 +2217,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2199,19 +2264,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2220,10 +2285,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2232,15 +2297,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2266,13 +2331,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2322,7 +2387,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2331,10 +2396,10 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2343,15 +2408,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2374,16 +2439,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2433,7 +2498,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2442,10 +2507,10 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2454,15 +2519,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2485,16 +2550,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2544,7 +2609,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2553,10 +2618,10 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2565,15 +2630,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2596,16 +2661,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2655,7 +2720,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2664,10 +2729,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2676,15 +2741,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2707,16 +2772,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2742,13 +2807,13 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>76</v>
@@ -2766,7 +2831,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2775,27 +2840,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2818,16 +2883,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2853,13 +2918,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2877,7 +2942,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2886,27 +2951,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2929,16 +2994,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2988,7 +3053,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2997,10 +3062,10 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3009,15 +3074,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3040,16 +3105,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3075,13 +3140,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3099,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3108,10 +3173,10 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3120,19 +3185,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3151,16 +3216,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3210,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3219,10 +3284,10 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3231,19 +3296,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3262,16 +3327,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3321,7 +3386,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3342,19 +3407,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3373,16 +3438,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3420,19 +3485,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3441,10 +3506,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3453,19 +3518,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3484,19 +3549,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3533,19 +3598,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3554,10 +3619,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3566,15 +3631,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3597,19 +3662,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3658,7 +3723,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3667,27 +3732,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3710,13 +3775,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3767,7 +3832,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3788,19 +3853,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3819,16 +3884,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3866,19 +3931,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3887,10 +3952,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3899,15 +3964,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3930,19 +3995,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3967,13 +4032,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3991,7 +4056,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4000,27 +4065,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4043,19 +4108,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4080,13 +4145,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4104,7 +4169,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4113,27 +4178,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4156,19 +4221,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4181,7 +4246,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4217,7 +4282,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4226,27 +4291,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4269,19 +4334,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4294,7 +4359,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4330,7 +4395,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4339,27 +4404,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4382,15 +4447,17 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4439,7 +4506,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4448,27 +4515,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4491,16 +4558,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4550,7 +4617,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4559,27 +4626,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4602,16 +4669,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4637,13 +4704,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4661,7 +4728,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4670,27 +4737,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4713,19 +4780,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4750,13 +4817,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4774,7 +4841,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4783,27 +4850,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4826,16 +4893,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4885,7 +4952,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4894,10 +4961,10 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -4906,19 +4973,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4937,17 +5004,19 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4996,7 +5065,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5005,27 +5074,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5048,16 +5117,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5107,7 +5176,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5116,27 +5185,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5159,17 +5228,19 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5218,7 +5289,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5227,27 +5298,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5270,13 +5341,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5327,7 +5398,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5348,19 +5419,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5379,16 +5450,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5426,19 +5497,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5447,10 +5518,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5459,15 +5530,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5490,16 +5561,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5549,7 +5620,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5558,27 +5629,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5601,23 +5672,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5662,7 +5733,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5671,27 +5742,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5714,16 +5785,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5773,7 +5844,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5782,27 +5853,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5825,13 +5896,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5882,7 +5953,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5903,19 +5974,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5934,16 +6005,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5981,19 +6052,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6002,10 +6073,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6014,19 +6085,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6045,19 +6116,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6106,7 +6177,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6115,10 +6186,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6127,15 +6198,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>184</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6158,16 +6229,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6193,11 +6264,11 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6215,7 +6286,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6224,27 +6295,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6267,19 +6338,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6328,7 +6399,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6337,27 +6408,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6380,17 +6451,19 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6439,7 +6512,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6448,10 +6521,10 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6460,15 +6533,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6491,16 +6564,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6550,7 +6623,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6559,27 +6632,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6602,13 +6675,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6659,7 +6732,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6680,19 +6753,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6711,16 +6784,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6758,19 +6831,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6779,10 +6852,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6791,15 +6864,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6822,16 +6895,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6881,7 +6954,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6890,27 +6963,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6933,23 +7006,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -6994,7 +7067,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7003,27 +7076,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7046,15 +7119,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7079,13 +7154,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7103,7 +7178,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7112,27 +7187,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7155,15 +7230,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7212,7 +7289,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7221,27 +7298,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7264,17 +7341,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7323,7 +7402,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7332,10 +7411,10 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7344,15 +7423,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7375,16 +7454,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7434,7 +7513,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7443,27 +7522,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>391</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7486,15 +7565,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7543,7 +7624,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7552,19 +7633,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-ihe-careteam</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-ihe-careteam</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T11:58:07+00:00</t>
+    <t>2024-07-04T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1094,7 +1094,7 @@
     <t>Roles may sometimes be inferred by type of Practitioner.  These are relationships that hold only within the context of the care team.  General relationships should be handled as properties of the Patient resource directly.</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/cds/ValueSet/careteam-roles-vs</t>
   </si>
   <si>
     <t>REL.2 (or PRT-4?)</t>
@@ -1106,7 +1106,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|https://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization)
 </t>
   </si>
   <si>
@@ -1602,7 +1602,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="233.90234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="235.8125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1617,7 +1617,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.81640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-04T12:00:42+00:00</t>
+    <t>2024-09-24T12:46:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -313,17 +313,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CareTeam.meta.id</t>
   </si>
   <si>
@@ -424,7 +417,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -444,7 +437,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -481,12 +474,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>CareTeam.meta.tag</t>
   </si>
   <si>
@@ -603,6 +590,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>CareTeam.extension</t>
   </si>
   <si>
@@ -650,12 +640,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>CareTeam.identifier.id</t>
   </si>
   <si>
@@ -790,15 +774,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>CX.7 + CX.8</t>
@@ -826,10 +802,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
@@ -882,12 +854,6 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>CareTeam.name</t>
   </si>
   <si>
@@ -917,9 +883,6 @@
     <t>Identifies the patient or group whose intended care is handled by the team.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows the team to care for a group (e.g. marriage) therapy. 
 Allows for an organization to designate a team such as the PICC line team.</t>
   </si>
@@ -927,9 +890,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>CareTeam.encounter</t>
   </si>
   <si>
@@ -964,12 +924,6 @@
     <t>FiveWs.init</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
-  </si>
-  <si>
     <t>CareTeam.period.id</t>
   </si>
   <si>
@@ -995,8 +949,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>DR.1</t>
@@ -1045,12 +999,12 @@
     <t>It is possible for a care team to be set up with roles specified only, before actual participants are invited into or identified as team members</t>
   </si>
   <si>
-    <t>ele-1
-ctm-1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}</t>
+    <t xml:space="preserve">ctm-1
+</t>
+  </si>
+  <si>
+    <t>ctm-1:CareTeam.participant.onBehalfOf can only be populated when CareTeam.participant.member is a Practitioner {onBehalfOf.exists() implies (member.resolve().iif(empty(), true, ofType(Practitioner).exists()))}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>REL (REL.4 is always the Patient) ( or PRT?)</t>
@@ -1187,9 +1141,6 @@
     <t>Describes why the care team exists.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
@@ -1237,16 +1188,6 @@
     <t>The ContactPoint.use code of home is not appropriate to use. These contacts are not the contact details of individual care team members.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
     <t>CareTeam.note</t>
   </si>
   <si>
@@ -1258,12 +1199,6 @@
   </si>
   <si>
     <t>Comments made about the CareTeam.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
-    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1564,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2065,11 +2000,11 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
@@ -2077,15 +2012,15 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2108,13 +2043,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2165,7 +2100,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2186,19 +2121,19 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2217,16 +2152,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2264,19 +2199,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2285,10 +2220,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2297,15 +2232,15 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2331,13 +2266,13 @@
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2387,7 +2322,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2396,11 +2331,11 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
@@ -2408,15 +2343,15 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2439,16 +2374,16 @@
         <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2498,7 +2433,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2507,11 +2442,11 @@
         <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
       </c>
@@ -2519,15 +2454,15 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2550,16 +2485,16 @@
         <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2609,7 +2544,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2618,11 +2553,11 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
@@ -2630,15 +2565,15 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2661,16 +2596,16 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2720,7 +2655,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2729,11 +2664,11 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2741,15 +2676,15 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2772,16 +2707,16 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2807,31 +2742,31 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2840,27 +2775,27 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2883,16 +2818,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2918,13 +2853,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2942,7 +2877,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2951,27 +2886,27 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2994,16 +2929,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3053,7 +2988,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3062,11 +2997,11 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3074,15 +3009,15 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3105,16 +3040,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3140,13 +3075,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3164,7 +3099,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3173,11 +3108,11 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3185,19 +3120,19 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3216,16 +3151,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3275,7 +3210,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3284,11 +3219,11 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3296,19 +3231,19 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3327,16 +3262,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3386,7 +3321,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3407,19 +3342,19 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3438,16 +3373,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3485,19 +3420,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3506,10 +3441,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3518,19 +3453,19 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3549,19 +3484,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3598,19 +3533,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3619,10 +3554,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3631,15 +3566,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3662,19 +3597,19 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3723,7 +3658,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3732,27 +3667,27 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3775,13 +3710,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3832,7 +3767,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3853,19 +3788,19 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3884,16 +3819,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3931,19 +3866,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3952,10 +3887,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3964,15 +3899,15 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3995,19 +3930,19 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4032,13 +3967,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4056,7 +3991,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4065,27 +4000,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4108,19 +4043,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4145,13 +4080,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4169,7 +4104,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4178,27 +4113,27 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4221,19 +4156,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4246,7 +4181,7 @@
         <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>76</v>
@@ -4282,7 +4217,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4291,27 +4226,27 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4334,19 +4269,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4359,7 +4294,7 @@
         <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>76</v>
@@ -4395,7 +4330,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4404,27 +4339,27 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4447,17 +4382,15 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4506,7 +4439,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4515,27 +4448,27 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4558,16 +4491,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4617,7 +4550,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4626,27 +4559,27 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4669,16 +4602,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4704,13 +4637,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4728,7 +4661,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4737,27 +4670,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4780,19 +4713,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4817,13 +4750,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4841,7 +4774,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4850,27 +4783,27 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4893,16 +4826,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4952,7 +4885,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4961,11 +4894,11 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4973,19 +4906,19 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5004,19 +4937,17 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5065,7 +4996,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5074,27 +5005,27 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5117,16 +5048,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5176,7 +5107,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5185,27 +5116,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5228,19 +5159,17 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5289,7 +5218,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5298,27 +5227,27 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5341,13 +5270,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5398,7 +5327,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5419,19 +5348,19 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5450,16 +5379,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5497,19 +5426,19 @@
         <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5518,10 +5447,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5530,15 +5459,15 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5561,16 +5490,16 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5620,7 +5549,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5629,27 +5558,27 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5672,23 +5601,23 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -5733,7 +5662,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5742,27 +5671,27 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5785,16 +5714,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5844,7 +5773,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5853,27 +5782,27 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5896,13 +5825,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5953,7 +5882,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5974,19 +5903,19 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6005,16 +5934,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6052,19 +5981,19 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6073,10 +6002,10 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6085,19 +6014,19 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6116,19 +6045,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6177,7 +6106,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6186,10 +6115,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6198,15 +6127,15 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6229,16 +6158,16 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6264,11 +6193,11 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6286,7 +6215,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6295,27 +6224,27 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6338,19 +6267,19 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6399,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6408,27 +6337,27 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6451,19 +6380,17 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6512,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6521,11 +6448,11 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6533,15 +6460,15 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6564,16 +6491,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6623,7 +6550,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6632,27 +6559,27 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6675,13 +6602,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6732,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6753,19 +6680,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6784,16 +6711,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6831,19 +6758,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6852,10 +6779,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6864,15 +6791,15 @@
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6895,16 +6822,16 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6954,7 +6881,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6963,27 +6890,27 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7006,23 +6933,23 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>76</v>
@@ -7067,7 +6994,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7076,27 +7003,27 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7119,17 +7046,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7154,13 +7079,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7178,7 +7103,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7187,27 +7112,27 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7230,17 +7155,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7289,7 +7212,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7298,27 +7221,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7341,19 +7264,17 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7402,7 +7323,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7411,11 +7332,11 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7423,15 +7344,15 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7454,16 +7375,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7513,7 +7434,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7522,27 +7443,27 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7565,17 +7486,15 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7624,7 +7543,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7633,19 +7552,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T12:46:07+00:00</t>
+    <t>2024-09-24T12:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T12:55:17+00:00</t>
+    <t>2024-09-24T13:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T13:55:27+00:00</t>
+    <t>2024-09-24T14:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:01:49+00:00</t>
+    <t>2024-09-24T16:16:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T16:16:00+00:00</t>
+    <t>2024-09-24T16:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T16:16:30+00:00</t>
+    <t>2025-11-17T08:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -430,7 +430,7 @@
     <t>CareTeam.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -468,7 +468,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -492,7 +492,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -535,7 +535,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -698,7 +698,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -786,7 +786,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -848,7 +848,7 @@
     <t>Indicates the type of care team.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
+    <t>http://hl7.org/fhir/ValueSet/care-team-category|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -893,7 +893,7 @@
     <t>CareTeam.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.why[x]</t>
@@ -1153,7 +1153,7 @@
     <t>CareTeam.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -1527,17 +1527,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.22265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.22265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.76953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="235.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1546,25 +1546,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.81640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.7109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="133.5703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2346,7 +2346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>193</v>
       </c>
@@ -7569,12 +7569,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM54">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T08:43:36+00:00</t>
+    <t>2025-11-17T09:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T09:24:16+00:00</t>
+    <t>2025-11-17T13:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T13:15:55+00:00</t>
+    <t>2025-11-17T14:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:06:25+00:00</t>
+    <t>2025-11-17T14:06:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:06:39+00:00</t>
+    <t>2025-11-17T14:24:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/main/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T14:24:44+00:00</t>
+    <t>2025-11-17T14:25:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
